--- a/BLL/WorkoutData.xlsx
+++ b/BLL/WorkoutData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Pictures\תכנות\שנה ב\פוריקט שנתי\C#\פרויקט חדש 20.04\Gym_Api\BLL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547D4BA3-0951-4E1B-80B3-F28A17236774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF1A294-66F6-4D4D-BFB1-F0673643AA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="865" activeTab="4" xr2:uid="{EF8F0BB2-EFE6-47A6-9158-2735583206B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="865" activeTab="7" xr2:uid="{EF8F0BB2-EFE6-47A6-9158-2735583206B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercises" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
   <si>
     <t>Time</t>
   </si>
@@ -82,12 +82,6 @@
   </si>
   <si>
     <t>max</t>
-  </si>
-  <si>
-    <t>מספר קטגוריה-</t>
-  </si>
-  <si>
-    <t>זמן אימון:</t>
   </si>
   <si>
     <t>חימום</t>
@@ -142,9 +136,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,7 +457,7 @@
   <dimension ref="C1:K6"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -500,12 +495,15 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
       <c r="B1">
         <v>40</v>
       </c>
@@ -575,20 +573,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78DD62F-379F-490F-9EC8-F56592CE6F66}">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -678,13 +684,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6E0BC8-0CCE-47C2-8F03-3226D826E2E7}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
       <c r="B1">
         <v>1</v>
       </c>
@@ -751,55 +758,55 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="G1">
-        <v>4</v>
-      </c>
-      <c r="H1">
-        <v>4</v>
-      </c>
-      <c r="I1">
-        <v>4</v>
-      </c>
-      <c r="J1">
-        <v>4</v>
-      </c>
-      <c r="K1">
-        <v>5</v>
-      </c>
-      <c r="L1">
-        <v>5</v>
-      </c>
-      <c r="M1">
-        <v>5</v>
-      </c>
-      <c r="N1">
-        <v>5</v>
-      </c>
-      <c r="O1">
+      <c r="B1" s="2">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2">
+        <v>5</v>
+      </c>
+      <c r="M1" s="2">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2">
+        <v>5</v>
+      </c>
+      <c r="O1" s="2">
         <v>5</v>
       </c>
     </row>
@@ -1019,6 +1026,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1027,12 +1035,15 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
       <c r="B1">
         <v>40</v>
       </c>
@@ -1102,11 +1113,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F34B87A-F7DA-4283-947F-42B259976FDB}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1115,8 +1124,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
+      <c r="A1">
+        <v>0</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -1129,35 +1138,30 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
+      <c r="A2">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
         <v>40</v>
       </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
       <c r="D3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>60</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
         <v>40</v>
       </c>
     </row>
@@ -1181,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1189,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1197,7 +1201,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/BLL/WorkoutData.xlsx
+++ b/BLL/WorkoutData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Pictures\תכנות\שנה ב\פוריקט שנתי\C#\פרויקט חדש 20.04\Gym_Api\BLL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF1A294-66F6-4D4D-BFB1-F0673643AA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D68B5D-850C-4C3B-8E66-9D75FF2CF1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="865" activeTab="7" xr2:uid="{EF8F0BB2-EFE6-47A6-9158-2735583206B3}"/>
   </bookViews>
@@ -20,9 +20,10 @@
     <sheet name="RepitByGoal" sheetId="6" r:id="rId5"/>
     <sheet name="DaysInWeek" sheetId="2" r:id="rId6"/>
     <sheet name="SumOfLargeByTime" sheetId="3" r:id="rId7"/>
-    <sheet name="TimeCategory" sheetId="9" r:id="rId8"/>
-    <sheet name="category" sheetId="10" r:id="rId9"/>
-    <sheet name="SumOfSmallByTime" sheetId="8" r:id="rId10"/>
+    <sheet name="OrderOfMuscle" sheetId="12" r:id="rId8"/>
+    <sheet name="SumOfSmallByTime" sheetId="8" r:id="rId9"/>
+    <sheet name="TimeCategory" sheetId="9" r:id="rId10"/>
+    <sheet name="category" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="19">
   <si>
     <t>Time</t>
   </si>
@@ -94,6 +95,12 @@
   </si>
   <si>
     <t>מתחיל</t>
+  </si>
+  <si>
+    <t>שרירים גדולים:</t>
+  </si>
+  <si>
+    <t>שרירים קטנים:</t>
   </si>
 </sst>
 </file>
@@ -491,79 +498,96 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C214611E-15AB-47C1-BCE5-AAFCF33BD682}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F34B87A-F7DA-4283-947F-42B259976FDB}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.796875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AE1831-0BAD-4AF4-BAAA-784C7F54B341}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>40</v>
-      </c>
-      <c r="C1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -612,32 +636,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A1467E-B1EE-4C2A-B5B5-53E0166DBB06}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -647,31 +656,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2D22A6-E054-463C-BEDE-8327E69DD807}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1035,6 +1049,166 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>40</v>
+      </c>
+      <c r="C1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49624140-3A54-4F77-8252-29482997404E}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C214611E-15AB-47C1-BCE5-AAFCF33BD682}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1056,10 +1230,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1067,10 +1241,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1078,10 +1252,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1089,10 +1263,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1100,108 +1274,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F34B87A-F7DA-4283-947F-42B259976FDB}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.796875" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>40</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>60</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AE1831-0BAD-4AF4-BAAA-784C7F54B341}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/BLL/WorkoutData.xlsx
+++ b/BLL/WorkoutData.xlsx
@@ -8,22 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Pictures\תכנות\שנה ב\פוריקט שנתי\C#\פרויקט חדש 20.04\Gym_Api\BLL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D68B5D-850C-4C3B-8E66-9D75FF2CF1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BB176B-BA3F-4D10-A37E-ECE6A806C20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="865" activeTab="7" xr2:uid="{EF8F0BB2-EFE6-47A6-9158-2735583206B3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Exercises" sheetId="1" r:id="rId1"/>
-    <sheet name="Level" sheetId="11" r:id="rId2"/>
-    <sheet name="SmallMuscle" sheetId="5" r:id="rId3"/>
-    <sheet name="LargeMuscle" sheetId="4" r:id="rId4"/>
-    <sheet name="RepitByGoal" sheetId="6" r:id="rId5"/>
-    <sheet name="DaysInWeek" sheetId="2" r:id="rId6"/>
+    <sheet name="Level" sheetId="11" r:id="rId1"/>
+    <sheet name="SmallMuscle" sheetId="5" r:id="rId2"/>
+    <sheet name="LargeMuscle" sheetId="4" r:id="rId3"/>
+    <sheet name="RepitByGoal" sheetId="6" r:id="rId4"/>
+    <sheet name="DaysInWeek" sheetId="2" r:id="rId5"/>
+    <sheet name="גיליון1" sheetId="17" r:id="rId6"/>
     <sheet name="SumOfLargeByTime" sheetId="3" r:id="rId7"/>
-    <sheet name="OrderOfMuscle" sheetId="12" r:id="rId8"/>
-    <sheet name="SumOfSmallByTime" sheetId="8" r:id="rId9"/>
+    <sheet name="SumOfSmallByTime" sheetId="8" r:id="rId8"/>
+    <sheet name="OrderOfMuscle" sheetId="12" r:id="rId9"/>
     <sheet name="TimeCategory" sheetId="9" r:id="rId10"/>
-    <sheet name="category" sheetId="10" r:id="rId11"/>
+    <sheet name="Goal" sheetId="13" r:id="rId11"/>
+    <sheet name="category" sheetId="10" r:id="rId12"/>
+    <sheet name="ExerciseToCategory" sheetId="14" r:id="rId13"/>
+    <sheet name="Time" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,10 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="19">
-  <si>
-    <t>Time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="29">
   <si>
     <t>מתקדם</t>
   </si>
@@ -101,13 +101,46 @@
   </si>
   <si>
     <t>שרירים קטנים:</t>
+  </si>
+  <si>
+    <t>יד קידמית</t>
+  </si>
+  <si>
+    <t>עליה במשקל</t>
+  </si>
+  <si>
+    <t>העלאת מסת שריר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">חיטוב </t>
+  </si>
+  <si>
+    <t>ירידה במשקל</t>
+  </si>
+  <si>
+    <t>שיפור כללי</t>
+  </si>
+  <si>
+    <t>מספר קטגוריה</t>
+  </si>
+  <si>
+    <t>שם</t>
+  </si>
+  <si>
+    <t>רמה</t>
+  </si>
+  <si>
+    <t>כמות התרגילים</t>
+  </si>
+  <si>
+    <t>שם מטרה</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,12 +148,6 @@
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF24292F"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,9 +170,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -460,48 +486,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2C9358-4AD1-4568-9833-488B4487E737}">
-  <dimension ref="C1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78DD62F-379F-490F-9EC8-F56592CE6F66}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="6" width="12.69921875" customWidth="1"/>
-    <col min="11" max="11" width="7.09765625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K6" s="1"/>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F34B87A-F7DA-4283-947F-42B259976FDB}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -509,45 +538,190 @@
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>40</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
         <v>40</v>
       </c>
     </row>
@@ -557,37 +731,399 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6750787-A1DC-4C46-A833-DFB7E002B602}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AE1831-0BAD-4AF4-BAAA-784C7F54B341}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1C4C5B-D9F5-4AE2-AE77-DC01CB92E983}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9F9E1F-0D57-422D-99C9-C30A85549FC9}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>40</v>
+      </c>
+      <c r="D1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>15</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -596,70 +1132,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78DD62F-379F-490F-9EC8-F56592CE6F66}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A1467E-B1EE-4C2A-B5B5-53E0166DBB06}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2D22A6-E054-463C-BEDE-8327E69DD807}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -671,22 +1148,137 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2D22A6-E054-463C-BEDE-8327E69DD807}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6E0BC8-0CCE-47C2-8F03-3226D826E2E7}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>4</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -695,352 +1287,295 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6E0BC8-0CCE-47C2-8F03-3226D826E2E7}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CC0BD8-C72D-456C-A539-0D339239CDB6}">
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection sqref="A1:O9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="I4" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CC0BD8-C72D-456C-A539-0D339239CDB6}">
-  <dimension ref="A1:O9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC310871-BF36-4036-B6CD-CD05C449C9B8}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2">
-        <v>4</v>
-      </c>
-      <c r="K1" s="2">
-        <v>5</v>
-      </c>
-      <c r="L1" s="2">
-        <v>5</v>
-      </c>
-      <c r="M1" s="2">
-        <v>5</v>
-      </c>
-      <c r="N1" s="2">
-        <v>5</v>
-      </c>
-      <c r="O1" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1049,7 +1584,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1126,89 +1661,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49624140-3A54-4F77-8252-29482997404E}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C214611E-15AB-47C1-BCE5-AAFCF33BD682}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1283,4 +1739,83 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49624140-3A54-4F77-8252-29482997404E}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>